--- a/data/case1/20/P2_13.xlsx
+++ b/data/case1/20/P2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.11967545091521004</v>
+        <v>0.082199919036966662</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999997240374228</v>
+        <v>-0.009999999617175348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999997261998033</v>
+        <v>-0.0089999996210288202</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.2839957117894798</v>
+        <v>0.28399342830664409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999997346240619</v>
+        <v>-0.0059999996314914483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999997256632298</v>
+        <v>-0.0059999996172948045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.01999999967774535</v>
+        <v>-0.019999999547087199</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999675659907</v>
+        <v>-0.019999999543006908</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999997208954881</v>
+        <v>-0.0059999996071757877</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999997193429522</v>
+        <v>-0.005999999603155004</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999997243095891</v>
+        <v>-0.0044999996104451156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.030768287508609493</v>
+        <v>-0.005580344626592737</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999997150601558</v>
+        <v>-0.013488974724367608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999693661501</v>
+        <v>-0.011999999568490516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999997130120164</v>
+        <v>-0.0059999995978685661</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0034413767720264943</v>
+        <v>0.019240816393325755</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999997110242731</v>
+        <v>-0.0059999995964004071</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999997006486865</v>
+        <v>-0.0089999995812855005</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.049748798549731799</v>
+        <v>-0.0089999996214200628</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999997243115359</v>
+        <v>-0.0089999996156837625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999997239473828</v>
+        <v>-0.026784856280380076</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999997236915874</v>
+        <v>-0.0089999996142031691</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999997227234729</v>
+        <v>-0.0089999996176919339</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999604129812</v>
+        <v>-0.041999999449444658</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.086081716972749689</v>
+        <v>-0.041999999446503011</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.005999999724817684</v>
+        <v>-0.0059999996159412206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999997236790392</v>
+        <v>-0.0059999996140902567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999997186270804</v>
+        <v>-0.0059999996064119543</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0036994194252688573</v>
+        <v>-0.011999999571489894</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999666131973</v>
+        <v>-0.019999999529681567</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999680307852</v>
+        <v>-0.013647289696809395</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999659657931</v>
+        <v>-0.020999999520372903</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999999710048165</v>
+        <v>-0.0059999995938486705</v>
       </c>
     </row>
   </sheetData>
